--- a/test/znmd/mar.mint.csv.xlsx
+++ b/test/znmd/mar.mint.csv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://broadridge-my.sharepoint.com/personal/john_nazareth_broadridge_com/Documents/personal/projects/gp/groupInXLS/test/znmd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_FE3713686FD42799C0CACA2D406BF35515CCC61E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7ABEC2EE-ACD7-47FC-B5B9-70390C9806AA}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_FE3713686FD42799C0CACA2D406BF35515CCC61E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10EBC1D7-0B0A-43B5-9E51-A9F00DE0C778}"/>
   <bookViews>
-    <workbookView xWindow="6348" yWindow="1860" windowWidth="12720" windowHeight="9384" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7248" yWindow="1392" windowWidth="14772" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="1" r:id="rId1"/>
@@ -26,21 +26,34 @@
     <sheet name="simran" sheetId="11" r:id="rId11"/>
     <sheet name="taxes" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="16" r:id="rId13"/>
-    <pivotCache cacheId="19" r:id="rId14"/>
-    <pivotCache cacheId="22" r:id="rId15"/>
-    <pivotCache cacheId="25" r:id="rId16"/>
-    <pivotCache cacheId="28" r:id="rId17"/>
-    <pivotCache cacheId="31" r:id="rId18"/>
-    <pivotCache cacheId="34" r:id="rId19"/>
-    <pivotCache cacheId="37" r:id="rId20"/>
-    <pivotCache cacheId="40" r:id="rId21"/>
-    <pivotCache cacheId="43" r:id="rId22"/>
-    <pivotCache cacheId="46" r:id="rId23"/>
-    <pivotCache cacheId="49" r:id="rId24"/>
+    <pivotCache cacheId="198" r:id="rId13"/>
+    <pivotCache cacheId="201" r:id="rId14"/>
+    <pivotCache cacheId="204" r:id="rId15"/>
+    <pivotCache cacheId="207" r:id="rId16"/>
+    <pivotCache cacheId="210" r:id="rId17"/>
+    <pivotCache cacheId="213" r:id="rId18"/>
+    <pivotCache cacheId="216" r:id="rId19"/>
+    <pivotCache cacheId="219" r:id="rId20"/>
+    <pivotCache cacheId="222" r:id="rId21"/>
+    <pivotCache cacheId="225" r:id="rId22"/>
+    <pivotCache cacheId="228" r:id="rId23"/>
+    <pivotCache cacheId="231" r:id="rId24"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -482,20 +495,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -518,7 +521,151 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nazareth, John" refreshedDate="45034.584331134261" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="32" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nazareth, John" refreshedDate="45333.783084953706" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="3" xr:uid="{00000000-000A-0000-FFFF-FFFF0D000000}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A2:J5" sheet="taxes"/>
+  </cacheSource>
+  <cacheFields count="10">
+    <cacheField name="Item" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Category" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Taxes"/>
+        <s v="State Tax"/>
+        <s v="Federal Tax"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Vendor" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Description" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Amount" numFmtId="39">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="300" maxValue="6208"/>
+    </cacheField>
+    <cacheField name="From" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="To" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Action" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="gd" numFmtId="39">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="jn" numFmtId="39">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="300" maxValue="6208"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nazareth, John" refreshedDate="45333.783096643521" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="2" xr:uid="{00000000-000A-0000-FFFF-FFFF04000000}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A2:J4" sheet="broadridge.return"/>
+  </cacheSource>
+  <cacheFields count="10">
+    <cacheField name="Item" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Category" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Restaurants"/>
+        <s v="Lunch"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Vendor" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Description" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Amount" numFmtId="39">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="11.31" maxValue="14.42"/>
+    </cacheField>
+    <cacheField name="From" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="To" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Action" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="gd" numFmtId="39">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="jn" numFmtId="39">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="11.31" maxValue="14.42"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nazareth, John" refreshedDate="45333.783098148146" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="1" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A2:J3" sheet="auto"/>
+  </cacheSource>
+  <cacheFields count="10">
+    <cacheField name="Item" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Category" numFmtId="0">
+      <sharedItems count="1">
+        <s v="Service &amp; Parts"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Vendor" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Description" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Amount" numFmtId="39">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="18" maxValue="18"/>
+    </cacheField>
+    <cacheField name="From" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="To" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Action" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="gd" numFmtId="39">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="jn" numFmtId="39">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="18" maxValue="18"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nazareth, John" refreshedDate="45333.783099421293" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="32" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A2:J34" sheet="default"/>
   </cacheSource>
@@ -575,58 +722,8 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nazareth, John" refreshedDate="45034.584333217594" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="1" xr:uid="{00000000-000A-0000-FFFF-FFFF0B000000}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A2:K3" sheet="moira.nazareth.usd"/>
-  </cacheSource>
-  <cacheFields count="11">
-    <cacheField name="Item" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Category" numFmtId="0">
-      <sharedItems count="1">
-        <s v="Investments"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Vendor" numFmtId="0">
-      <sharedItems longText="1"/>
-    </cacheField>
-    <cacheField name="Description" numFmtId="0">
-      <sharedItems longText="1"/>
-    </cacheField>
-    <cacheField name="Amount" numFmtId="39">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="624.1" maxValue="624.1"/>
-    </cacheField>
-    <cacheField name="From" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="To" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Action" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="cn" numFmtId="39">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="208.03" maxValue="208.03"/>
-    </cacheField>
-    <cacheField name="gc" numFmtId="39">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="208.03" maxValue="208.03"/>
-    </cacheField>
-    <cacheField name="jn" numFmtId="39">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="208.03" maxValue="208.03"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nazareth, John" refreshedDate="45034.584333449071" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="1" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nazareth, John" refreshedDate="45333.783086226853" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="1" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A2:J3" sheet="simran"/>
   </cacheSource>
@@ -662,102 +759,6 @@
     </cacheField>
     <cacheField name="jn" numFmtId="39">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="40.14" maxValue="40.14"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nazareth, John" refreshedDate="45034.584333680556" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="3" xr:uid="{00000000-000A-0000-FFFF-FFFF0D000000}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A2:J5" sheet="taxes"/>
-  </cacheSource>
-  <cacheFields count="10">
-    <cacheField name="Item" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Category" numFmtId="0">
-      <sharedItems count="3">
-        <s v="Taxes"/>
-        <s v="State Tax"/>
-        <s v="Federal Tax"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Vendor" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Description" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Amount" numFmtId="39">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="300" maxValue="6208"/>
-    </cacheField>
-    <cacheField name="From" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="To" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Action" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="gd" numFmtId="39">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-    <cacheField name="jn" numFmtId="39">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="300" maxValue="6208"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nazareth, John" refreshedDate="45034.584331134261" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="1" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A2:J3" sheet="auto"/>
-  </cacheSource>
-  <cacheFields count="10">
-    <cacheField name="Item" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Category" numFmtId="0">
-      <sharedItems count="1">
-        <s v="Service &amp; Parts"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Vendor" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Description" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Amount" numFmtId="39">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="18" maxValue="18"/>
-    </cacheField>
-    <cacheField name="From" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="To" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Action" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="gd" numFmtId="39">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-    <cacheField name="jn" numFmtId="39">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="18" maxValue="18"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -769,28 +770,27 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nazareth, John" refreshedDate="45034.584331481485" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="2" xr:uid="{00000000-000A-0000-FFFF-FFFF04000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nazareth, John" refreshedDate="45333.783087384261" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="1" xr:uid="{00000000-000A-0000-FFFF-FFFF0B000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A2:J4" sheet="broadridge.return"/>
+    <worksheetSource ref="A2:K3" sheet="moira.nazareth.usd"/>
   </cacheSource>
-  <cacheFields count="10">
+  <cacheFields count="11">
     <cacheField name="Item" numFmtId="0">
       <sharedItems/>
     </cacheField>
     <cacheField name="Category" numFmtId="0">
-      <sharedItems count="2">
-        <s v="Restaurants"/>
-        <s v="Lunch"/>
+      <sharedItems count="1">
+        <s v="Investments"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Vendor" numFmtId="0">
-      <sharedItems/>
+      <sharedItems longText="1"/>
     </cacheField>
     <cacheField name="Description" numFmtId="0">
-      <sharedItems/>
+      <sharedItems longText="1"/>
     </cacheField>
     <cacheField name="Amount" numFmtId="39">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="11.31" maxValue="14.42"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="624.1" maxValue="624.1"/>
     </cacheField>
     <cacheField name="From" numFmtId="0">
       <sharedItems/>
@@ -801,11 +801,14 @@
     <cacheField name="Action" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="gd" numFmtId="39">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    <cacheField name="cn" numFmtId="39">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="208.03" maxValue="208.03"/>
+    </cacheField>
+    <cacheField name="gc" numFmtId="39">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="208.03" maxValue="208.03"/>
     </cacheField>
     <cacheField name="jn" numFmtId="39">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="11.31" maxValue="14.42"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="208.03" maxValue="208.03"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -817,18 +820,18 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nazareth, John" refreshedDate="45034.584331597223" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="2" xr:uid="{00000000-000A-0000-FFFF-FFFF05000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nazareth, John" refreshedDate="45333.783088657408" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="2" xr:uid="{00000000-000A-0000-FFFF-FFFF0A000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A2:J4" sheet="home"/>
+    <worksheetSource ref="A2:K4" sheet="moira.nazareth.inr"/>
   </cacheSource>
-  <cacheFields count="10">
+  <cacheFields count="11">
     <cacheField name="Item" numFmtId="0">
       <sharedItems/>
     </cacheField>
     <cacheField name="Category" numFmtId="0">
       <sharedItems count="2">
-        <s v="Home Improvement"/>
-        <s v="Clothing"/>
+        <s v="Shipping"/>
+        <s v="Business Services"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Vendor" numFmtId="0">
@@ -837,8 +840,8 @@
     <cacheField name="Description" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="Amount" numFmtId="39">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="13.39" maxValue="65"/>
+    <cacheField name="Amount" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.8228644000000001" maxValue="607.62145999999996"/>
     </cacheField>
     <cacheField name="From" numFmtId="0">
       <sharedItems/>
@@ -849,11 +852,14 @@
     <cacheField name="Action" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="gd" numFmtId="39">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-    <cacheField name="jn" numFmtId="39">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="13.39" maxValue="65"/>
+    <cacheField name="cn" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.61" maxValue="202.54"/>
+    </cacheField>
+    <cacheField name="gc" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.61" maxValue="202.54"/>
+    </cacheField>
+    <cacheField name="jn" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.61" maxValue="202.54"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -865,18 +871,17 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nazareth, John" refreshedDate="45034.584331944447" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="2" xr:uid="{00000000-000A-0000-FFFF-FFFF06000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nazareth, John" refreshedDate="45333.783089930555" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="1" xr:uid="{00000000-000A-0000-FFFF-FFFF09000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A2:J4" sheet="ice.skating"/>
+    <worksheetSource ref="A2:J3" sheet="jill.shopping"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Item" numFmtId="0">
       <sharedItems/>
     </cacheField>
     <cacheField name="Category" numFmtId="0">
-      <sharedItems count="2">
-        <s v="Coffee Shops"/>
-        <s v="Public Transportation"/>
+      <sharedItems count="1">
+        <s v="Clothing"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Vendor" numFmtId="0">
@@ -886,7 +891,7 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Amount" numFmtId="39">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7" maxValue="7.82"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="83.95" maxValue="83.95"/>
     </cacheField>
     <cacheField name="From" numFmtId="0">
       <sharedItems/>
@@ -898,10 +903,10 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="gd" numFmtId="39">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="83.95" maxValue="83.95"/>
+    </cacheField>
+    <cacheField name="jn" numFmtId="39">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-    <cacheField name="jn" numFmtId="39">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7" maxValue="7.82"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -913,9 +918,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nazareth, John" refreshedDate="45034.58433229167" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="7" xr:uid="{00000000-000A-0000-FFFF-FFFF07000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nazareth, John" refreshedDate="45333.783091203702" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="26" xr:uid="{00000000-000A-0000-FFFF-FFFF08000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A2:J9" sheet="india.usd"/>
+    <worksheetSource ref="A2:J28" sheet="invictus"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Item" numFmtId="0">
@@ -923,10 +928,10 @@
     </cacheField>
     <cacheField name="Category" numFmtId="0">
       <sharedItems count="4">
-        <s v="Clothing"/>
-        <s v="Personal Care"/>
-        <s v="Shopping"/>
-        <s v="Home Supplies"/>
+        <s v="Public Transportation"/>
+        <s v="Lunch"/>
+        <s v="Restaurants"/>
+        <s v="Mobile Phone"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Vendor" numFmtId="0">
@@ -936,7 +941,7 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Amount" numFmtId="39">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="16.22" maxValue="137.75"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.75" maxValue="29.95"/>
     </cacheField>
     <cacheField name="From" numFmtId="0">
       <sharedItems/>
@@ -948,10 +953,10 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="gd" numFmtId="39">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.75" maxValue="29.95"/>
+    </cacheField>
+    <cacheField name="jn" numFmtId="39">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
-    </cacheField>
-    <cacheField name="jn" numFmtId="39">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="16.22" maxValue="137.75"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -963,9 +968,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nazareth, John" refreshedDate="45034.584332523147" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="26" xr:uid="{00000000-000A-0000-FFFF-FFFF08000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nazareth, John" refreshedDate="45333.783092592595" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="7" xr:uid="{00000000-000A-0000-FFFF-FFFF07000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A2:J28" sheet="invictus"/>
+    <worksheetSource ref="A2:J9" sheet="india.usd"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Item" numFmtId="0">
@@ -973,10 +978,10 @@
     </cacheField>
     <cacheField name="Category" numFmtId="0">
       <sharedItems count="4">
-        <s v="Public Transportation"/>
-        <s v="Lunch"/>
-        <s v="Restaurants"/>
-        <s v="Mobile Phone"/>
+        <s v="Clothing"/>
+        <s v="Personal Care"/>
+        <s v="Shopping"/>
+        <s v="Home Supplies"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Vendor" numFmtId="0">
@@ -986,7 +991,7 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Amount" numFmtId="39">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.75" maxValue="29.95"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="16.22" maxValue="137.75"/>
     </cacheField>
     <cacheField name="From" numFmtId="0">
       <sharedItems/>
@@ -998,10 +1003,10 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="gd" numFmtId="39">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.75" maxValue="29.95"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
     </cacheField>
     <cacheField name="jn" numFmtId="39">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="16.22" maxValue="137.75"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1013,17 +1018,18 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nazareth, John" refreshedDate="45034.584332754632" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="1" xr:uid="{00000000-000A-0000-FFFF-FFFF09000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nazareth, John" refreshedDate="45333.783093749997" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="2" xr:uid="{00000000-000A-0000-FFFF-FFFF06000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A2:J3" sheet="jill.shopping"/>
+    <worksheetSource ref="A2:J4" sheet="ice.skating"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="Item" numFmtId="0">
       <sharedItems/>
     </cacheField>
     <cacheField name="Category" numFmtId="0">
-      <sharedItems count="1">
-        <s v="Clothing"/>
+      <sharedItems count="2">
+        <s v="Coffee Shops"/>
+        <s v="Public Transportation"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Vendor" numFmtId="0">
@@ -1033,7 +1039,7 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Amount" numFmtId="39">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="83.95" maxValue="83.95"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7" maxValue="7.82"/>
     </cacheField>
     <cacheField name="From" numFmtId="0">
       <sharedItems/>
@@ -1045,10 +1051,10 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="gd" numFmtId="39">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="83.95" maxValue="83.95"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
     </cacheField>
     <cacheField name="jn" numFmtId="39">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7" maxValue="7.82"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1060,18 +1066,18 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nazareth, John" refreshedDate="45034.584332986109" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="2" xr:uid="{00000000-000A-0000-FFFF-FFFF0A000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nazareth, John" refreshedDate="45333.783095023151" createdVersion="3" refreshedVersion="8" minRefreshableVersion="3" recordCount="2" xr:uid="{00000000-000A-0000-FFFF-FFFF05000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A2:K4" sheet="moira.nazareth.inr"/>
+    <worksheetSource ref="A2:J4" sheet="home"/>
   </cacheSource>
-  <cacheFields count="11">
+  <cacheFields count="10">
     <cacheField name="Item" numFmtId="0">
       <sharedItems/>
     </cacheField>
     <cacheField name="Category" numFmtId="0">
       <sharedItems count="2">
-        <s v="Shipping"/>
-        <s v="Business Services"/>
+        <s v="Home Improvement"/>
+        <s v="Clothing"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Vendor" numFmtId="0">
@@ -1080,8 +1086,8 @@
     <cacheField name="Description" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="Amount" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.8228644000000001" maxValue="607.62145999999996"/>
+    <cacheField name="Amount" numFmtId="39">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="13.39" maxValue="65"/>
     </cacheField>
     <cacheField name="From" numFmtId="0">
       <sharedItems/>
@@ -1092,14 +1098,11 @@
     <cacheField name="Action" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="cn" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.61" maxValue="202.54"/>
-    </cacheField>
-    <cacheField name="gc" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.61" maxValue="202.54"/>
-    </cacheField>
-    <cacheField name="jn" numFmtId="164">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.61" maxValue="202.54"/>
+    <cacheField name="gd" numFmtId="39">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+    <cacheField name="jn" numFmtId="39">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="13.39" maxValue="65"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1111,6 +1114,93 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="3">
+  <r>
+    <s v="Thu 03.23"/>
+    <x v="0"/>
+    <s v="UNIVERSAL TAX CRANFORD NJ"/>
+    <s v="UNIVERSAL TAX CRANFORD NJ"/>
+    <n v="300"/>
+    <s v="jn"/>
+    <s v="jn"/>
+    <s v="jn (*:self), gd (*:self), taxes (*:group)"/>
+    <n v="0"/>
+    <n v="300"/>
+  </r>
+  <r>
+    <s v="Thu 03.30"/>
+    <x v="1"/>
+    <s v="NYS DTF PIT      DES:Tax Paymnt ID:XXXXXXXXXX50047           INDN:PHXXXXX34183            CO ID:NXXXXX3200 PPD"/>
+    <s v="NYS DTF PIT      DES:Tax Paymnt ID:XXXXXXXXXX50047           INDN:PHXXXXX34183            CO ID:NXXXXX3200 PPD"/>
+    <n v="2203"/>
+    <s v="jn"/>
+    <s v="jn"/>
+    <s v=""/>
+    <n v="0"/>
+    <n v="2203"/>
+  </r>
+  <r>
+    <s v="Thu 03.30"/>
+    <x v="2"/>
+    <s v="IRS              DES:USATAXPYMT ID:XXXXXXXXXX14676           INDN:JOHN B &amp; GILLIAN NAZAR  CO ID:XXXXX02000 PPD"/>
+    <s v="IRS              DES:USATAXPYMT ID:XXXXXXXXXX14676           INDN:JOHN B &amp; GILLIAN NAZAR  CO ID:XXXXX02000 PPD"/>
+    <n v="6208"/>
+    <s v="jn"/>
+    <s v="jn"/>
+    <s v=""/>
+    <n v="0"/>
+    <n v="6208"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="2">
+  <r>
+    <s v="Thu 03.23"/>
+    <x v="0"/>
+    <s v="596 DELI NEW YORK NY"/>
+    <s v="596 DELI NEW YORK NY"/>
+    <n v="11.31"/>
+    <s v="jn"/>
+    <s v="jn"/>
+    <s v="jn (*:self), gd (*:self), broadridge.return (*:group)"/>
+    <n v="0"/>
+    <n v="11.31"/>
+  </r>
+  <r>
+    <s v="Thu 03.30"/>
+    <x v="1"/>
+    <s v="596 DELI NEW YORK NY"/>
+    <s v="596 DELI NEW YORK NY"/>
+    <n v="14.42"/>
+    <s v="jn"/>
+    <s v="jn"/>
+    <s v=""/>
+    <n v="0"/>
+    <n v="14.42"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
+  <r>
+    <s v="Sun 03.05"/>
+    <x v="0"/>
+    <s v="RIVERFRONT CAR WASH HOBOKEN NJ"/>
+    <s v="RIVERFRONT CAR WASH HOBOKEN NJ"/>
+    <n v="18"/>
+    <s v="jn"/>
+    <s v="jn"/>
+    <s v="jn (*:self), gd (*:self), auto (*:group)"/>
+    <n v="0"/>
+    <n v="18"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords12.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="32">
   <r>
     <s v="Wed 03.01"/>
@@ -1499,7 +1589,24 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
+  <r>
+    <s v="Tue 03.14"/>
+    <x v="0"/>
+    <s v="TST* THE WICKED WOLF - HOBOKEN NJ"/>
+    <s v="TST* THE WICKED WOLF - HOBOKEN NJ"/>
+    <n v="40.14"/>
+    <s v="jn"/>
+    <s v="jn"/>
+    <s v="jn (*:self), gd (*:self), simran (*:group)"/>
+    <n v="0"/>
+    <n v="40.14"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
   <r>
     <s v="Wed 03.22"/>
@@ -1517,592 +1624,7 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
-  <r>
-    <s v="Tue 03.14"/>
-    <x v="0"/>
-    <s v="TST* THE WICKED WOLF - HOBOKEN NJ"/>
-    <s v="TST* THE WICKED WOLF - HOBOKEN NJ"/>
-    <n v="40.14"/>
-    <s v="jn"/>
-    <s v="jn"/>
-    <s v="jn (*:self), gd (*:self), simran (*:group)"/>
-    <n v="0"/>
-    <n v="40.14"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="3">
-  <r>
-    <s v="Thu 03.23"/>
-    <x v="0"/>
-    <s v="UNIVERSAL TAX CRANFORD NJ"/>
-    <s v="UNIVERSAL TAX CRANFORD NJ"/>
-    <n v="300"/>
-    <s v="jn"/>
-    <s v="jn"/>
-    <s v="jn (*:self), gd (*:self), taxes (*:group)"/>
-    <n v="0"/>
-    <n v="300"/>
-  </r>
-  <r>
-    <s v="Thu 03.30"/>
-    <x v="1"/>
-    <s v="NYS DTF PIT      DES:Tax Paymnt ID:XXXXXXXXXX50047           INDN:PHXXXXX34183            CO ID:NXXXXX3200 PPD"/>
-    <s v="NYS DTF PIT      DES:Tax Paymnt ID:XXXXXXXXXX50047           INDN:PHXXXXX34183            CO ID:NXXXXX3200 PPD"/>
-    <n v="2203"/>
-    <s v="jn"/>
-    <s v="jn"/>
-    <s v=""/>
-    <n v="0"/>
-    <n v="2203"/>
-  </r>
-  <r>
-    <s v="Thu 03.30"/>
-    <x v="2"/>
-    <s v="IRS              DES:USATAXPYMT ID:XXXXXXXXXX14676           INDN:JOHN B &amp; GILLIAN NAZAR  CO ID:XXXXX02000 PPD"/>
-    <s v="IRS              DES:USATAXPYMT ID:XXXXXXXXXX14676           INDN:JOHN B &amp; GILLIAN NAZAR  CO ID:XXXXX02000 PPD"/>
-    <n v="6208"/>
-    <s v="jn"/>
-    <s v="jn"/>
-    <s v=""/>
-    <n v="0"/>
-    <n v="6208"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
-  <r>
-    <s v="Sun 03.05"/>
-    <x v="0"/>
-    <s v="RIVERFRONT CAR WASH HOBOKEN NJ"/>
-    <s v="RIVERFRONT CAR WASH HOBOKEN NJ"/>
-    <n v="18"/>
-    <s v="jn"/>
-    <s v="jn"/>
-    <s v="jn (*:self), gd (*:self), auto (*:group)"/>
-    <n v="0"/>
-    <n v="18"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="2">
-  <r>
-    <s v="Thu 03.23"/>
-    <x v="0"/>
-    <s v="596 DELI NEW YORK NY"/>
-    <s v="596 DELI NEW YORK NY"/>
-    <n v="11.31"/>
-    <s v="jn"/>
-    <s v="jn"/>
-    <s v="jn (*:self), gd (*:self), broadridge.return (*:group)"/>
-    <n v="0"/>
-    <n v="11.31"/>
-  </r>
-  <r>
-    <s v="Thu 03.30"/>
-    <x v="1"/>
-    <s v="596 DELI NEW YORK NY"/>
-    <s v="596 DELI NEW YORK NY"/>
-    <n v="14.42"/>
-    <s v="jn"/>
-    <s v="jn"/>
-    <s v=""/>
-    <n v="0"/>
-    <n v="14.42"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
 <file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="2">
-  <r>
-    <s v="Sun 03.05"/>
-    <x v="0"/>
-    <s v="THE HOME DEPOT 6845 JERSEY CITY NJ"/>
-    <s v="THE HOME DEPOT 6845 JERSEY CITY NJ"/>
-    <n v="13.39"/>
-    <s v="jn"/>
-    <s v="jn"/>
-    <s v="jn (*:self), gd (*:self), home (*:group)"/>
-    <n v="0"/>
-    <n v="13.39"/>
-  </r>
-  <r>
-    <s v="Sat 03.18"/>
-    <x v="1"/>
-    <s v="MARSHALLS #705 SECAUCUS NJ"/>
-    <s v="MARSHALLS #705 SECAUCUS NJ"/>
-    <n v="65"/>
-    <s v="jn"/>
-    <s v="jn"/>
-    <s v=""/>
-    <n v="0"/>
-    <n v="65"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="2">
-  <r>
-    <s v="Sat 03.04"/>
-    <x v="0"/>
-    <s v="PAYPAL *STARBUCKS 4029357733 WA"/>
-    <s v="PAYPAL *STARBUCKS 4029357733 WA"/>
-    <n v="7.82"/>
-    <s v="jn"/>
-    <s v="jn"/>
-    <s v="jn (*:self), gd (*:self), ice.skating (*:group)"/>
-    <n v="0"/>
-    <n v="7.82"/>
-  </r>
-  <r>
-    <s v="Sat 03.04"/>
-    <x v="1"/>
-    <s v="NJT BUS - MyTix Newark NJ"/>
-    <s v="NJT BUS - MyTix Newark NJ"/>
-    <n v="7"/>
-    <s v="jn"/>
-    <s v="jn"/>
-    <s v=""/>
-    <n v="0"/>
-    <n v="7"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="7">
-  <r>
-    <s v="Fri 03.03"/>
-    <x v="0"/>
-    <s v="MARSHALLS #705 SECAUCUS NJ"/>
-    <s v="MARSHALLS #705 SECAUCUS NJ"/>
-    <n v="23"/>
-    <s v="jn"/>
-    <s v="jn"/>
-    <s v="jn (*:self), gd (*:self), india.usd (*:group)"/>
-    <n v="0"/>
-    <n v="23"/>
-  </r>
-  <r>
-    <s v="Sat 03.18"/>
-    <x v="0"/>
-    <s v="MARSHALLS #705 SECAUCUS NJ"/>
-    <s v="MARSHALLS #705 SECAUCUS NJ"/>
-    <n v="137.75"/>
-    <s v="jn"/>
-    <s v="jn"/>
-    <s v=""/>
-    <n v="0"/>
-    <n v="137.75"/>
-  </r>
-  <r>
-    <s v="Wed 03.22"/>
-    <x v="0"/>
-    <s v="SQ *MASH ARMY AND NAVY New York NY"/>
-    <s v="SQ *MASH ARMY AND NAVY New York NY"/>
-    <n v="39.979999999999997"/>
-    <s v="jn"/>
-    <s v="jn"/>
-    <s v=""/>
-    <n v="0"/>
-    <n v="39.979999999999997"/>
-  </r>
-  <r>
-    <s v="Wed 03.29"/>
-    <x v="1"/>
-    <s v="ULTA.COM 8669838582 IL"/>
-    <s v="ULTA.COM 8669838582 IL"/>
-    <n v="37.82"/>
-    <s v="jn"/>
-    <s v="jn"/>
-    <s v=""/>
-    <n v="0"/>
-    <n v="37.82"/>
-  </r>
-  <r>
-    <s v="Wed 03.29"/>
-    <x v="1"/>
-    <s v="ULTA.COM 8669838582 IL"/>
-    <s v="ULTA.COM 8669838582 IL"/>
-    <n v="37.79"/>
-    <s v="jn"/>
-    <s v="jn"/>
-    <s v=""/>
-    <n v="0"/>
-    <n v="37.79"/>
-  </r>
-  <r>
-    <s v="Wed 03.29"/>
-    <x v="2"/>
-    <s v="Muji - Times Square NEW YORK NY"/>
-    <s v="Muji - Times Square NEW YORK NY"/>
-    <n v="16.22"/>
-    <s v="jn"/>
-    <s v="jn"/>
-    <s v=""/>
-    <n v="0"/>
-    <n v="16.22"/>
-  </r>
-  <r>
-    <s v="Thu 03.30"/>
-    <x v="3"/>
-    <s v="Wal-Mart"/>
-    <s v="WALMART.COM 800-966-6546 AR"/>
-    <n v="30"/>
-    <s v="jn"/>
-    <s v="jn"/>
-    <s v=""/>
-    <n v="0"/>
-    <n v="30"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="26">
-  <r>
-    <s v="Tue 03.07"/>
-    <x v="0"/>
-    <s v="NJT BUS - MYTIX 973-2755555 NJ"/>
-    <s v="NJT BUS - MYTIX 973-2755555 NJ"/>
-    <n v="29.5"/>
-    <s v="jn"/>
-    <s v="gd"/>
-    <s v="jn (*:self), gd (*:self), invictus (*:group)"/>
-    <n v="29.5"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Wed 03.08"/>
-    <x v="0"/>
-    <s v="MTA*NYCT PAYGO"/>
-    <s v="MTA*NYCT PAYGO"/>
-    <n v="2.75"/>
-    <s v="jn"/>
-    <s v="gd"/>
-    <s v=""/>
-    <n v="2.75"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Wed 03.08"/>
-    <x v="0"/>
-    <s v="MTA*NYCT PAYGO"/>
-    <s v="MTA*NYCT PAYGO"/>
-    <n v="2.75"/>
-    <s v="jn"/>
-    <s v="gd"/>
-    <s v=""/>
-    <n v="2.75"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Wed 03.08"/>
-    <x v="1"/>
-    <s v="Culinart"/>
-    <s v="CULINART - 39335 - UN RIV"/>
-    <n v="29.95"/>
-    <s v="jn"/>
-    <s v="gd"/>
-    <s v=""/>
-    <n v="29.95"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Wed 03.08"/>
-    <x v="1"/>
-    <s v="Culinart"/>
-    <s v="CULINART - 39335 - UN RIV"/>
-    <n v="15.93"/>
-    <s v="jn"/>
-    <s v="gd"/>
-    <s v=""/>
-    <n v="15.93"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Fri 03.10"/>
-    <x v="0"/>
-    <s v="MTA*NYCT PAYGO"/>
-    <s v="MTA*NYCT PAYGO"/>
-    <n v="2.75"/>
-    <s v="jn"/>
-    <s v="gd"/>
-    <s v=""/>
-    <n v="2.75"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Sat 03.11"/>
-    <x v="1"/>
-    <s v="Culinart"/>
-    <s v="CULINART39334 UN LOBBY CA"/>
-    <n v="11.9"/>
-    <s v="jn"/>
-    <s v="gd"/>
-    <s v=""/>
-    <n v="11.9"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Mon 03.13"/>
-    <x v="0"/>
-    <s v="MTA*NYCT PAYGO"/>
-    <s v="MTA*NYCT PAYGO"/>
-    <n v="2.75"/>
-    <s v="jn"/>
-    <s v="gd"/>
-    <s v=""/>
-    <n v="2.75"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Tue 03.14"/>
-    <x v="0"/>
-    <s v="MTA*NYCT PAYGO"/>
-    <s v="MTA*NYCT PAYGO"/>
-    <n v="2.75"/>
-    <s v="jn"/>
-    <s v="gd"/>
-    <s v=""/>
-    <n v="2.75"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Tue 03.14"/>
-    <x v="1"/>
-    <s v="Culinart"/>
-    <s v="CULINART39334 UN LOB NEW YORK CI"/>
-    <n v="11.9"/>
-    <s v="jn"/>
-    <s v="gd"/>
-    <s v=""/>
-    <n v="11.9"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Wed 03.15"/>
-    <x v="0"/>
-    <s v="MTA*NYCT PAYGO"/>
-    <s v="MTA*NYCT PAYGO"/>
-    <n v="2.75"/>
-    <s v="jn"/>
-    <s v="gd"/>
-    <s v=""/>
-    <n v="2.75"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Thu 03.16"/>
-    <x v="0"/>
-    <s v="MTA*NYCT PAYGO"/>
-    <s v="MTA*NYCT PAYGO"/>
-    <n v="2.75"/>
-    <s v="jn"/>
-    <s v="gd"/>
-    <s v=""/>
-    <n v="2.75"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Thu 03.16"/>
-    <x v="2"/>
-    <s v="FORDFOUND CAFE"/>
-    <s v="FORDFOUND CAFE"/>
-    <n v="9.25"/>
-    <s v="jn"/>
-    <s v="gd"/>
-    <s v=""/>
-    <n v="9.25"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Thu 03.16"/>
-    <x v="0"/>
-    <s v="NJT BUS - MYTIX 973-2755555 NJ"/>
-    <s v="NJT BUS - MYTIX 973-2755555 NJ"/>
-    <n v="7"/>
-    <s v="jn"/>
-    <s v="gd"/>
-    <s v=""/>
-    <n v="7"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Fri 03.17"/>
-    <x v="0"/>
-    <s v="MTA*NYCT PAYGO"/>
-    <s v="MTA*NYCT PAYGO"/>
-    <n v="2.75"/>
-    <s v="jn"/>
-    <s v="gd"/>
-    <s v=""/>
-    <n v="2.75"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Sat 03.18"/>
-    <x v="3"/>
-    <s v="OPTIMUM.COM/MOBILE 888-333-0643 NY"/>
-    <s v="OPTIMUM.COM/MOBILE 888-333-0643 NY"/>
-    <n v="5.99"/>
-    <s v="jn"/>
-    <s v="gd"/>
-    <s v=""/>
-    <n v="5.99"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Mon 03.20"/>
-    <x v="0"/>
-    <s v="POS DEBIT                NJT BUS"/>
-    <s v="POS DEBIT                NJT BUS"/>
-    <n v="7"/>
-    <s v="jn"/>
-    <s v="gd"/>
-    <s v=""/>
-    <n v="7"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Tue 03.21"/>
-    <x v="0"/>
-    <s v="MTA*NYCT PAYGO"/>
-    <s v="MTA*NYCT PAYGO"/>
-    <n v="2.75"/>
-    <s v="jn"/>
-    <s v="gd"/>
-    <s v=""/>
-    <n v="2.75"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Wed 03.22"/>
-    <x v="0"/>
-    <s v="MTA*NYCT PAYGO"/>
-    <s v="MTA*NYCT PAYGO"/>
-    <n v="2.75"/>
-    <s v="jn"/>
-    <s v="gd"/>
-    <s v=""/>
-    <n v="2.75"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Wed 03.22"/>
-    <x v="0"/>
-    <s v="NJT BUS - MYTIX 973-2755555 NJ"/>
-    <s v="NJT BUS - MYTIX 973-2755555 NJ"/>
-    <n v="10.5"/>
-    <s v="jn"/>
-    <s v="gd"/>
-    <s v=""/>
-    <n v="10.5"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Thu 03.23"/>
-    <x v="1"/>
-    <s v="Culinart"/>
-    <s v="CULINART - 39335 - UN RIV"/>
-    <n v="16.75"/>
-    <s v="jn"/>
-    <s v="gd"/>
-    <s v=""/>
-    <n v="16.75"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Thu 03.23"/>
-    <x v="0"/>
-    <s v="MTA*METROCARD/PATH"/>
-    <s v="MTA*METROCARD/PATH"/>
-    <n v="10"/>
-    <s v="jn"/>
-    <s v="gd"/>
-    <s v=""/>
-    <n v="10"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Fri 03.24"/>
-    <x v="0"/>
-    <s v="MTA*NYCT PAYGO"/>
-    <s v="MTA*NYCT PAYGO"/>
-    <n v="2.75"/>
-    <s v="jn"/>
-    <s v="gd"/>
-    <s v=""/>
-    <n v="2.75"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Fri 03.24"/>
-    <x v="0"/>
-    <s v="NJT BUS - MYTIX 973-2755555 NJ"/>
-    <s v="NJT BUS - MYTIX 973-2755555 NJ"/>
-    <n v="7"/>
-    <s v="jn"/>
-    <s v="gd"/>
-    <s v=""/>
-    <n v="7"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Sat 03.25"/>
-    <x v="0"/>
-    <s v="MTA*NYCT PAYGO"/>
-    <s v="MTA*NYCT PAYGO"/>
-    <n v="2.75"/>
-    <s v="jn"/>
-    <s v="gd"/>
-    <s v=""/>
-    <n v="2.75"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Sat 03.25"/>
-    <x v="0"/>
-    <s v="MTA*NYCT PAYGO"/>
-    <s v="MTA*NYCT PAYGO"/>
-    <n v="2.75"/>
-    <s v="jn"/>
-    <s v="gd"/>
-    <s v=""/>
-    <n v="2.75"/>
-    <n v="0"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
-  <r>
-    <s v="Fri 03.03"/>
-    <x v="0"/>
-    <s v="MARSHALLS #705 SECAUCUS NJ"/>
-    <s v="MARSHALLS #705 SECAUCUS NJ"/>
-    <n v="83.95"/>
-    <s v="jn"/>
-    <s v="gd"/>
-    <s v="jn (*:self), gd (*:self), jill.shopping (*:group)"/>
-    <n v="83.95"/>
-    <n v="0"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords9.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="2">
   <r>
     <s v="Sat 03.25"/>
@@ -2133,8 +1655,489 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
+  <r>
+    <s v="Fri 03.03"/>
+    <x v="0"/>
+    <s v="MARSHALLS #705 SECAUCUS NJ"/>
+    <s v="MARSHALLS #705 SECAUCUS NJ"/>
+    <n v="83.95"/>
+    <s v="jn"/>
+    <s v="gd"/>
+    <s v="jn (*:self), gd (*:self), jill.shopping (*:group)"/>
+    <n v="83.95"/>
+    <n v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="26">
+  <r>
+    <s v="Tue 03.07"/>
+    <x v="0"/>
+    <s v="NJT BUS - MYTIX 973-2755555 NJ"/>
+    <s v="NJT BUS - MYTIX 973-2755555 NJ"/>
+    <n v="29.5"/>
+    <s v="jn"/>
+    <s v="gd"/>
+    <s v="jn (*:self), gd (*:self), invictus (*:group)"/>
+    <n v="29.5"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Wed 03.08"/>
+    <x v="0"/>
+    <s v="MTA*NYCT PAYGO"/>
+    <s v="MTA*NYCT PAYGO"/>
+    <n v="2.75"/>
+    <s v="jn"/>
+    <s v="gd"/>
+    <s v=""/>
+    <n v="2.75"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Wed 03.08"/>
+    <x v="0"/>
+    <s v="MTA*NYCT PAYGO"/>
+    <s v="MTA*NYCT PAYGO"/>
+    <n v="2.75"/>
+    <s v="jn"/>
+    <s v="gd"/>
+    <s v=""/>
+    <n v="2.75"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Wed 03.08"/>
+    <x v="1"/>
+    <s v="Culinart"/>
+    <s v="CULINART - 39335 - UN RIV"/>
+    <n v="29.95"/>
+    <s v="jn"/>
+    <s v="gd"/>
+    <s v=""/>
+    <n v="29.95"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Wed 03.08"/>
+    <x v="1"/>
+    <s v="Culinart"/>
+    <s v="CULINART - 39335 - UN RIV"/>
+    <n v="15.93"/>
+    <s v="jn"/>
+    <s v="gd"/>
+    <s v=""/>
+    <n v="15.93"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Fri 03.10"/>
+    <x v="0"/>
+    <s v="MTA*NYCT PAYGO"/>
+    <s v="MTA*NYCT PAYGO"/>
+    <n v="2.75"/>
+    <s v="jn"/>
+    <s v="gd"/>
+    <s v=""/>
+    <n v="2.75"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Sat 03.11"/>
+    <x v="1"/>
+    <s v="Culinart"/>
+    <s v="CULINART39334 UN LOBBY CA"/>
+    <n v="11.9"/>
+    <s v="jn"/>
+    <s v="gd"/>
+    <s v=""/>
+    <n v="11.9"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Mon 03.13"/>
+    <x v="0"/>
+    <s v="MTA*NYCT PAYGO"/>
+    <s v="MTA*NYCT PAYGO"/>
+    <n v="2.75"/>
+    <s v="jn"/>
+    <s v="gd"/>
+    <s v=""/>
+    <n v="2.75"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Tue 03.14"/>
+    <x v="0"/>
+    <s v="MTA*NYCT PAYGO"/>
+    <s v="MTA*NYCT PAYGO"/>
+    <n v="2.75"/>
+    <s v="jn"/>
+    <s v="gd"/>
+    <s v=""/>
+    <n v="2.75"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Tue 03.14"/>
+    <x v="1"/>
+    <s v="Culinart"/>
+    <s v="CULINART39334 UN LOB NEW YORK CI"/>
+    <n v="11.9"/>
+    <s v="jn"/>
+    <s v="gd"/>
+    <s v=""/>
+    <n v="11.9"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Wed 03.15"/>
+    <x v="0"/>
+    <s v="MTA*NYCT PAYGO"/>
+    <s v="MTA*NYCT PAYGO"/>
+    <n v="2.75"/>
+    <s v="jn"/>
+    <s v="gd"/>
+    <s v=""/>
+    <n v="2.75"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Thu 03.16"/>
+    <x v="0"/>
+    <s v="MTA*NYCT PAYGO"/>
+    <s v="MTA*NYCT PAYGO"/>
+    <n v="2.75"/>
+    <s v="jn"/>
+    <s v="gd"/>
+    <s v=""/>
+    <n v="2.75"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Thu 03.16"/>
+    <x v="2"/>
+    <s v="FORDFOUND CAFE"/>
+    <s v="FORDFOUND CAFE"/>
+    <n v="9.25"/>
+    <s v="jn"/>
+    <s v="gd"/>
+    <s v=""/>
+    <n v="9.25"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Thu 03.16"/>
+    <x v="0"/>
+    <s v="NJT BUS - MYTIX 973-2755555 NJ"/>
+    <s v="NJT BUS - MYTIX 973-2755555 NJ"/>
+    <n v="7"/>
+    <s v="jn"/>
+    <s v="gd"/>
+    <s v=""/>
+    <n v="7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Fri 03.17"/>
+    <x v="0"/>
+    <s v="MTA*NYCT PAYGO"/>
+    <s v="MTA*NYCT PAYGO"/>
+    <n v="2.75"/>
+    <s v="jn"/>
+    <s v="gd"/>
+    <s v=""/>
+    <n v="2.75"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Sat 03.18"/>
+    <x v="3"/>
+    <s v="OPTIMUM.COM/MOBILE 888-333-0643 NY"/>
+    <s v="OPTIMUM.COM/MOBILE 888-333-0643 NY"/>
+    <n v="5.99"/>
+    <s v="jn"/>
+    <s v="gd"/>
+    <s v=""/>
+    <n v="5.99"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Mon 03.20"/>
+    <x v="0"/>
+    <s v="POS DEBIT                NJT BUS"/>
+    <s v="POS DEBIT                NJT BUS"/>
+    <n v="7"/>
+    <s v="jn"/>
+    <s v="gd"/>
+    <s v=""/>
+    <n v="7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Tue 03.21"/>
+    <x v="0"/>
+    <s v="MTA*NYCT PAYGO"/>
+    <s v="MTA*NYCT PAYGO"/>
+    <n v="2.75"/>
+    <s v="jn"/>
+    <s v="gd"/>
+    <s v=""/>
+    <n v="2.75"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Wed 03.22"/>
+    <x v="0"/>
+    <s v="MTA*NYCT PAYGO"/>
+    <s v="MTA*NYCT PAYGO"/>
+    <n v="2.75"/>
+    <s v="jn"/>
+    <s v="gd"/>
+    <s v=""/>
+    <n v="2.75"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Wed 03.22"/>
+    <x v="0"/>
+    <s v="NJT BUS - MYTIX 973-2755555 NJ"/>
+    <s v="NJT BUS - MYTIX 973-2755555 NJ"/>
+    <n v="10.5"/>
+    <s v="jn"/>
+    <s v="gd"/>
+    <s v=""/>
+    <n v="10.5"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Thu 03.23"/>
+    <x v="1"/>
+    <s v="Culinart"/>
+    <s v="CULINART - 39335 - UN RIV"/>
+    <n v="16.75"/>
+    <s v="jn"/>
+    <s v="gd"/>
+    <s v=""/>
+    <n v="16.75"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Thu 03.23"/>
+    <x v="0"/>
+    <s v="MTA*METROCARD/PATH"/>
+    <s v="MTA*METROCARD/PATH"/>
+    <n v="10"/>
+    <s v="jn"/>
+    <s v="gd"/>
+    <s v=""/>
+    <n v="10"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Fri 03.24"/>
+    <x v="0"/>
+    <s v="MTA*NYCT PAYGO"/>
+    <s v="MTA*NYCT PAYGO"/>
+    <n v="2.75"/>
+    <s v="jn"/>
+    <s v="gd"/>
+    <s v=""/>
+    <n v="2.75"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Fri 03.24"/>
+    <x v="0"/>
+    <s v="NJT BUS - MYTIX 973-2755555 NJ"/>
+    <s v="NJT BUS - MYTIX 973-2755555 NJ"/>
+    <n v="7"/>
+    <s v="jn"/>
+    <s v="gd"/>
+    <s v=""/>
+    <n v="7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Sat 03.25"/>
+    <x v="0"/>
+    <s v="MTA*NYCT PAYGO"/>
+    <s v="MTA*NYCT PAYGO"/>
+    <n v="2.75"/>
+    <s v="jn"/>
+    <s v="gd"/>
+    <s v=""/>
+    <n v="2.75"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Sat 03.25"/>
+    <x v="0"/>
+    <s v="MTA*NYCT PAYGO"/>
+    <s v="MTA*NYCT PAYGO"/>
+    <n v="2.75"/>
+    <s v="jn"/>
+    <s v="gd"/>
+    <s v=""/>
+    <n v="2.75"/>
+    <n v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="7">
+  <r>
+    <s v="Fri 03.03"/>
+    <x v="0"/>
+    <s v="MARSHALLS #705 SECAUCUS NJ"/>
+    <s v="MARSHALLS #705 SECAUCUS NJ"/>
+    <n v="23"/>
+    <s v="jn"/>
+    <s v="jn"/>
+    <s v="jn (*:self), gd (*:self), india.usd (*:group)"/>
+    <n v="0"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <s v="Sat 03.18"/>
+    <x v="0"/>
+    <s v="MARSHALLS #705 SECAUCUS NJ"/>
+    <s v="MARSHALLS #705 SECAUCUS NJ"/>
+    <n v="137.75"/>
+    <s v="jn"/>
+    <s v="jn"/>
+    <s v=""/>
+    <n v="0"/>
+    <n v="137.75"/>
+  </r>
+  <r>
+    <s v="Wed 03.22"/>
+    <x v="0"/>
+    <s v="SQ *MASH ARMY AND NAVY New York NY"/>
+    <s v="SQ *MASH ARMY AND NAVY New York NY"/>
+    <n v="39.979999999999997"/>
+    <s v="jn"/>
+    <s v="jn"/>
+    <s v=""/>
+    <n v="0"/>
+    <n v="39.979999999999997"/>
+  </r>
+  <r>
+    <s v="Wed 03.29"/>
+    <x v="1"/>
+    <s v="ULTA.COM 8669838582 IL"/>
+    <s v="ULTA.COM 8669838582 IL"/>
+    <n v="37.82"/>
+    <s v="jn"/>
+    <s v="jn"/>
+    <s v=""/>
+    <n v="0"/>
+    <n v="37.82"/>
+  </r>
+  <r>
+    <s v="Wed 03.29"/>
+    <x v="1"/>
+    <s v="ULTA.COM 8669838582 IL"/>
+    <s v="ULTA.COM 8669838582 IL"/>
+    <n v="37.79"/>
+    <s v="jn"/>
+    <s v="jn"/>
+    <s v=""/>
+    <n v="0"/>
+    <n v="37.79"/>
+  </r>
+  <r>
+    <s v="Wed 03.29"/>
+    <x v="2"/>
+    <s v="Muji - Times Square NEW YORK NY"/>
+    <s v="Muji - Times Square NEW YORK NY"/>
+    <n v="16.22"/>
+    <s v="jn"/>
+    <s v="jn"/>
+    <s v=""/>
+    <n v="0"/>
+    <n v="16.22"/>
+  </r>
+  <r>
+    <s v="Thu 03.30"/>
+    <x v="3"/>
+    <s v="Wal-Mart"/>
+    <s v="WALMART.COM 800-966-6546 AR"/>
+    <n v="30"/>
+    <s v="jn"/>
+    <s v="jn"/>
+    <s v=""/>
+    <n v="0"/>
+    <n v="30"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="2">
+  <r>
+    <s v="Sat 03.04"/>
+    <x v="0"/>
+    <s v="PAYPAL *STARBUCKS 4029357733 WA"/>
+    <s v="PAYPAL *STARBUCKS 4029357733 WA"/>
+    <n v="7.82"/>
+    <s v="jn"/>
+    <s v="jn"/>
+    <s v="jn (*:self), gd (*:self), ice.skating (*:group)"/>
+    <n v="0"/>
+    <n v="7.82"/>
+  </r>
+  <r>
+    <s v="Sat 03.04"/>
+    <x v="1"/>
+    <s v="NJT BUS - MyTix Newark NJ"/>
+    <s v="NJT BUS - MyTix Newark NJ"/>
+    <n v="7"/>
+    <s v="jn"/>
+    <s v="jn"/>
+    <s v=""/>
+    <n v="0"/>
+    <n v="7"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="2">
+  <r>
+    <s v="Sun 03.05"/>
+    <x v="0"/>
+    <s v="THE HOME DEPOT 6845 JERSEY CITY NJ"/>
+    <s v="THE HOME DEPOT 6845 JERSEY CITY NJ"/>
+    <n v="13.39"/>
+    <s v="jn"/>
+    <s v="jn"/>
+    <s v="jn (*:self), gd (*:self), home (*:group)"/>
+    <n v="0"/>
+    <n v="13.39"/>
+  </r>
+  <r>
+    <s v="Sat 03.18"/>
+    <x v="1"/>
+    <s v="MARSHALLS #705 SECAUCUS NJ"/>
+    <s v="MARSHALLS #705 SECAUCUS NJ"/>
+    <n v="65"/>
+    <s v="jn"/>
+    <s v="jn"/>
+    <s v=""/>
+    <n v="0"/>
+    <n v="65"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable2" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable2" cacheId="231" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" multipleFieldFilters="0">
   <location ref="B36:D50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -2233,7 +2236,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0900-000000000000}" name="PivotTable11" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0900-000000000000}" name="PivotTable11" cacheId="204" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" multipleFieldFilters="0">
   <location ref="B5:E8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -2293,7 +2296,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable12" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0A00-000000000000}" name="PivotTable12" cacheId="201" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" multipleFieldFilters="0">
   <location ref="B5:D8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -2348,7 +2351,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0B00-000000000000}" name="PivotTable13" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0B00-000000000000}" name="PivotTable13" cacheId="198" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" multipleFieldFilters="0">
   <location ref="B7:D12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -2411,7 +2414,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable3" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable3" cacheId="228" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" multipleFieldFilters="0">
   <location ref="B5:D8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -2466,7 +2469,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable4" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable4" cacheId="225" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" multipleFieldFilters="0">
   <location ref="B6:D10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -2525,7 +2528,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable5" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable5" cacheId="222" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" multipleFieldFilters="0">
   <location ref="B6:D10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -2584,7 +2587,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable6" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable6" cacheId="219" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" multipleFieldFilters="0">
   <location ref="B6:D10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -2643,7 +2646,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="PivotTable7" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="PivotTable7" cacheId="216" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" multipleFieldFilters="0">
   <location ref="B11:D17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -2710,7 +2713,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable8" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000000000000}" name="PivotTable8" cacheId="213" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" multipleFieldFilters="0">
   <location ref="B30:D36" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -2777,7 +2780,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0700-000000000000}" name="PivotTable9" cacheId="37" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0700-000000000000}" name="PivotTable9" cacheId="210" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" multipleFieldFilters="0">
   <location ref="B5:D8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -2832,7 +2835,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable10" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0800-000000000000}" name="PivotTable10" cacheId="207" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" multipleFieldFilters="0">
   <location ref="B6:E10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -4901,12 +4904,12 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C37" t="s">
@@ -4917,145 +4920,145 @@
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="12">
-        <v>0</v>
-      </c>
-      <c r="D38" s="12">
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
         <v>318.62</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="1">
         <v>62.91</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="1">
         <v>10.66</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="1">
         <v>14.5</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="1">
         <v>14.5</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C41" s="12">
-        <v>0</v>
-      </c>
-      <c r="D41" s="12">
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
         <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="1">
         <v>13.01</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="12">
-        <v>0</v>
-      </c>
-      <c r="D43" s="12">
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
         <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="12">
-        <v>0</v>
-      </c>
-      <c r="D44" s="12">
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
         <v>469</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="12">
-        <v>0</v>
-      </c>
-      <c r="D45" s="12">
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
         <v>142.05000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C46" s="12">
-        <v>0</v>
-      </c>
-      <c r="D46" s="12">
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
         <v>58.19</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="12">
-        <v>0</v>
-      </c>
-      <c r="D47" s="12">
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
         <v>44.52</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="1">
         <v>47.29</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="12">
-        <v>0</v>
-      </c>
-      <c r="D49" s="12">
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
         <v>208.03</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="1">
         <v>137.71</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D50" s="1">
         <v>1307.75</v>
       </c>
     </row>
@@ -5207,7 +5210,7 @@
       <c r="D3" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="1">
         <v>624.1</v>
       </c>
       <c r="F3" t="s">
@@ -5219,50 +5222,50 @@
       <c r="H3" t="s">
         <v>120</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="1">
         <v>208.03</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="1">
         <v>208.03</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="1">
         <v>208.03</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="1">
         <v>-208.03</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="1">
         <v>-208.03</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="1">
         <v>416.07</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3" s="1">
         <v>208.03</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="1">
         <v>208.03</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="1">
         <v>208.03</v>
       </c>
-      <c r="R3" s="10">
-        <v>0</v>
-      </c>
-      <c r="S3" s="10">
-        <v>0</v>
-      </c>
-      <c r="T3" s="10">
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
         <v>624.1</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C6" t="s">
@@ -5276,30 +5279,30 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="1">
         <v>208.03</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="1">
         <v>208.03</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="1">
         <v>208.03</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="1">
         <v>208.03</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="1">
         <v>208.03</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="1">
         <v>208.03</v>
       </c>
     </row>
@@ -5431,7 +5434,7 @@
       <c r="D3" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="1">
         <v>40.14</v>
       </c>
       <c r="F3" t="s">
@@ -5443,38 +5446,38 @@
       <c r="H3" t="s">
         <v>122</v>
       </c>
-      <c r="I3" s="11">
-        <v>0</v>
-      </c>
-      <c r="J3" s="11">
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
         <v>40.14</v>
       </c>
-      <c r="K3" s="11">
-        <v>0</v>
-      </c>
-      <c r="L3" s="11">
-        <v>0</v>
-      </c>
-      <c r="M3" s="11">
-        <v>0</v>
-      </c>
-      <c r="N3" s="11">
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
         <v>40.14</v>
       </c>
-      <c r="O3" s="11">
-        <v>0</v>
-      </c>
-      <c r="P3" s="11">
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
         <v>40.14</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C6" t="s">
@@ -5485,24 +5488,24 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="12">
-        <v>0</v>
-      </c>
-      <c r="D7" s="12">
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
         <v>40.14</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C8" s="12">
-        <v>0</v>
-      </c>
-      <c r="D8" s="12">
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
         <v>40.14</v>
       </c>
     </row>
@@ -5634,7 +5637,7 @@
       <c r="D3" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="1">
         <v>300</v>
       </c>
       <c r="F3" t="s">
@@ -5646,28 +5649,28 @@
       <c r="H3" t="s">
         <v>125</v>
       </c>
-      <c r="I3" s="12">
-        <v>0</v>
-      </c>
-      <c r="J3" s="12">
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
         <v>300</v>
       </c>
-      <c r="K3" s="12">
-        <v>0</v>
-      </c>
-      <c r="L3" s="12">
-        <v>0</v>
-      </c>
-      <c r="M3" s="12">
-        <v>0</v>
-      </c>
-      <c r="N3" s="12">
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
         <v>300</v>
       </c>
-      <c r="O3" s="12">
-        <v>0</v>
-      </c>
-      <c r="P3" s="12">
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
         <v>300</v>
       </c>
     </row>
@@ -5684,7 +5687,7 @@
       <c r="D4" t="s">
         <v>127</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="1">
         <v>2203</v>
       </c>
       <c r="F4" t="s">
@@ -5696,28 +5699,28 @@
       <c r="H4" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="12">
-        <v>0</v>
-      </c>
-      <c r="J4" s="12">
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
         <v>2203</v>
       </c>
-      <c r="K4" s="12">
-        <v>0</v>
-      </c>
-      <c r="L4" s="12">
-        <v>0</v>
-      </c>
-      <c r="M4" s="12">
-        <v>0</v>
-      </c>
-      <c r="N4" s="12">
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
         <v>2503</v>
       </c>
-      <c r="O4" s="12">
-        <v>0</v>
-      </c>
-      <c r="P4" s="12">
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
         <v>2503</v>
       </c>
     </row>
@@ -5734,7 +5737,7 @@
       <c r="D5" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="1">
         <v>6208</v>
       </c>
       <c r="F5" t="s">
@@ -5746,38 +5749,38 @@
       <c r="H5" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="12">
-        <v>0</v>
-      </c>
-      <c r="J5" s="12">
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
         <v>6208</v>
       </c>
-      <c r="K5" s="12">
-        <v>0</v>
-      </c>
-      <c r="L5" s="12">
-        <v>0</v>
-      </c>
-      <c r="M5" s="12">
-        <v>0</v>
-      </c>
-      <c r="N5" s="12">
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
         <v>8711</v>
       </c>
-      <c r="O5" s="12">
-        <v>0</v>
-      </c>
-      <c r="P5" s="12">
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
         <v>8711</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C8" t="s">
@@ -5788,46 +5791,46 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="12">
-        <v>0</v>
-      </c>
-      <c r="D9" s="12">
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
         <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="12">
-        <v>0</v>
-      </c>
-      <c r="D10" s="12">
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
         <v>2203</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="12">
-        <v>0</v>
-      </c>
-      <c r="D11" s="12">
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
         <v>6208</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="12">
-        <v>0</v>
-      </c>
-      <c r="D12" s="12">
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
         <v>8711</v>
       </c>
     </row>
@@ -5961,7 +5964,7 @@
       <c r="D3" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>18</v>
       </c>
       <c r="F3" t="s">
@@ -5973,38 +5976,38 @@
       <c r="H3" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
         <v>18</v>
       </c>
-      <c r="K3" s="2">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
         <v>18</v>
       </c>
-      <c r="O3" s="2">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2">
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C6" t="s">
@@ -6015,24 +6018,24 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="12">
-        <v>0</v>
-      </c>
-      <c r="D7" s="12">
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C8" s="12">
-        <v>0</v>
-      </c>
-      <c r="D8" s="12">
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
         <v>18</v>
       </c>
     </row>
@@ -6164,7 +6167,7 @@
       <c r="D3" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <v>11.31</v>
       </c>
       <c r="F3" t="s">
@@ -6176,28 +6179,28 @@
       <c r="H3" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
         <v>11.31</v>
       </c>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3">
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
         <v>11.31</v>
       </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
         <v>11.31</v>
       </c>
     </row>
@@ -6214,7 +6217,7 @@
       <c r="D4" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="1">
         <v>14.42</v>
       </c>
       <c r="F4" t="s">
@@ -6226,38 +6229,38 @@
       <c r="H4" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
         <v>14.42</v>
       </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3">
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
         <v>25.73</v>
       </c>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
         <v>25.73</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C7" t="s">
@@ -6268,35 +6271,35 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="12">
-        <v>0</v>
-      </c>
-      <c r="D8" s="12">
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
         <v>11.31</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="12">
-        <v>0</v>
-      </c>
-      <c r="D9" s="12">
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
         <v>14.42</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="12">
-        <v>0</v>
-      </c>
-      <c r="D10" s="12">
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
         <v>25.73</v>
       </c>
     </row>
@@ -6428,7 +6431,7 @@
       <c r="D3" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="1">
         <v>13.39</v>
       </c>
       <c r="F3" t="s">
@@ -6440,28 +6443,28 @@
       <c r="H3" t="s">
         <v>79</v>
       </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4">
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
         <v>13.39</v>
       </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4">
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
         <v>13.39</v>
       </c>
-      <c r="O3" s="4">
-        <v>0</v>
-      </c>
-      <c r="P3" s="4">
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
         <v>13.39</v>
       </c>
     </row>
@@ -6478,7 +6481,7 @@
       <c r="D4" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="1">
         <v>65</v>
       </c>
       <c r="F4" t="s">
@@ -6490,38 +6493,38 @@
       <c r="H4" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
         <v>65</v>
       </c>
-      <c r="K4" s="4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4">
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
         <v>78.39</v>
       </c>
-      <c r="O4" s="4">
-        <v>0</v>
-      </c>
-      <c r="P4" s="4">
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
         <v>78.39</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C7" t="s">
@@ -6532,35 +6535,35 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="12">
-        <v>0</v>
-      </c>
-      <c r="D8" s="12">
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
         <v>13.39</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="12">
-        <v>0</v>
-      </c>
-      <c r="D9" s="12">
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
         <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="12">
-        <v>0</v>
-      </c>
-      <c r="D10" s="12">
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
         <v>78.39</v>
       </c>
     </row>
@@ -6692,7 +6695,7 @@
       <c r="D3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="1">
         <v>7.82</v>
       </c>
       <c r="F3" t="s">
@@ -6704,28 +6707,28 @@
       <c r="H3" t="s">
         <v>82</v>
       </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
         <v>7.82</v>
       </c>
-      <c r="K3" s="5">
-        <v>0</v>
-      </c>
-      <c r="L3" s="5">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5">
-        <v>0</v>
-      </c>
-      <c r="N3" s="5">
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
         <v>7.82</v>
       </c>
-      <c r="O3" s="5">
-        <v>0</v>
-      </c>
-      <c r="P3" s="5">
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
         <v>7.82</v>
       </c>
     </row>
@@ -6742,7 +6745,7 @@
       <c r="D4" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="1">
         <v>7</v>
       </c>
       <c r="F4" t="s">
@@ -6754,38 +6757,38 @@
       <c r="H4" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
         <v>7</v>
       </c>
-      <c r="K4" s="5">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0</v>
-      </c>
-      <c r="M4" s="5">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5">
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
         <v>14.82</v>
       </c>
-      <c r="O4" s="5">
-        <v>0</v>
-      </c>
-      <c r="P4" s="5">
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
         <v>14.82</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C7" t="s">
@@ -6796,35 +6799,35 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="12">
-        <v>0</v>
-      </c>
-      <c r="D8" s="12">
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
         <v>7.82</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="12">
-        <v>0</v>
-      </c>
-      <c r="D9" s="12">
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="12">
-        <v>0</v>
-      </c>
-      <c r="D10" s="12">
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
         <v>14.82</v>
       </c>
     </row>
@@ -6956,7 +6959,7 @@
       <c r="D3" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="1">
         <v>23</v>
       </c>
       <c r="F3" t="s">
@@ -6968,28 +6971,28 @@
       <c r="H3" t="s">
         <v>85</v>
       </c>
-      <c r="I3" s="6">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6">
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
         <v>23</v>
       </c>
-      <c r="K3" s="6">
-        <v>0</v>
-      </c>
-      <c r="L3" s="6">
-        <v>0</v>
-      </c>
-      <c r="M3" s="6">
-        <v>0</v>
-      </c>
-      <c r="N3" s="6">
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
         <v>23</v>
       </c>
-      <c r="O3" s="6">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6">
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
         <v>23</v>
       </c>
     </row>
@@ -7006,7 +7009,7 @@
       <c r="D4" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="1">
         <v>137.75</v>
       </c>
       <c r="F4" t="s">
@@ -7018,28 +7021,28 @@
       <c r="H4" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6">
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
         <v>137.75</v>
       </c>
-      <c r="K4" s="6">
-        <v>0</v>
-      </c>
-      <c r="L4" s="6">
-        <v>0</v>
-      </c>
-      <c r="M4" s="6">
-        <v>0</v>
-      </c>
-      <c r="N4" s="6">
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
         <v>160.75</v>
       </c>
-      <c r="O4" s="6">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6">
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
         <v>160.75</v>
       </c>
     </row>
@@ -7056,7 +7059,7 @@
       <c r="D5" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="1">
         <v>39.979999999999997</v>
       </c>
       <c r="F5" t="s">
@@ -7068,28 +7071,28 @@
       <c r="H5" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="6">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
         <v>39.979999999999997</v>
       </c>
-      <c r="K5" s="6">
-        <v>0</v>
-      </c>
-      <c r="L5" s="6">
-        <v>0</v>
-      </c>
-      <c r="M5" s="6">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6">
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
         <v>200.73</v>
       </c>
-      <c r="O5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
         <v>200.73</v>
       </c>
     </row>
@@ -7106,7 +7109,7 @@
       <c r="D6" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="1">
         <v>37.82</v>
       </c>
       <c r="F6" t="s">
@@ -7118,28 +7121,28 @@
       <c r="H6" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
         <v>37.82</v>
       </c>
-      <c r="K6" s="6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0</v>
-      </c>
-      <c r="M6" s="6">
-        <v>0</v>
-      </c>
-      <c r="N6" s="6">
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
         <v>238.55</v>
       </c>
-      <c r="O6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
         <v>238.55</v>
       </c>
     </row>
@@ -7156,7 +7159,7 @@
       <c r="D7" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="1">
         <v>37.79</v>
       </c>
       <c r="F7" t="s">
@@ -7168,28 +7171,28 @@
       <c r="H7" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
         <v>37.79</v>
       </c>
-      <c r="K7" s="6">
-        <v>0</v>
-      </c>
-      <c r="L7" s="6">
-        <v>0</v>
-      </c>
-      <c r="M7" s="6">
-        <v>0</v>
-      </c>
-      <c r="N7" s="6">
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
         <v>276.33999999999997</v>
       </c>
-      <c r="O7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
         <v>276.33999999999997</v>
       </c>
     </row>
@@ -7206,7 +7209,7 @@
       <c r="D8" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="1">
         <v>16.22</v>
       </c>
       <c r="F8" t="s">
@@ -7218,28 +7221,28 @@
       <c r="H8" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
         <v>16.22</v>
       </c>
-      <c r="K8" s="6">
-        <v>0</v>
-      </c>
-      <c r="L8" s="6">
-        <v>0</v>
-      </c>
-      <c r="M8" s="6">
-        <v>0</v>
-      </c>
-      <c r="N8" s="6">
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
         <v>292.56</v>
       </c>
-      <c r="O8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
         <v>292.56</v>
       </c>
     </row>
@@ -7256,7 +7259,7 @@
       <c r="D9" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="1">
         <v>30</v>
       </c>
       <c r="F9" t="s">
@@ -7268,38 +7271,38 @@
       <c r="H9" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
         <v>30</v>
       </c>
-      <c r="K9" s="6">
-        <v>0</v>
-      </c>
-      <c r="L9" s="6">
-        <v>0</v>
-      </c>
-      <c r="M9" s="6">
-        <v>0</v>
-      </c>
-      <c r="N9" s="6">
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
         <v>322.56</v>
       </c>
-      <c r="O9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
         <v>322.56</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C12" t="s">
@@ -7310,57 +7313,57 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="12">
-        <v>0</v>
-      </c>
-      <c r="D13" s="12">
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
         <v>200.73</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="12">
-        <v>0</v>
-      </c>
-      <c r="D14" s="12">
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
         <v>75.61</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="12">
-        <v>0</v>
-      </c>
-      <c r="D15" s="12">
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
         <v>16.22</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="12">
-        <v>0</v>
-      </c>
-      <c r="D16" s="12">
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="12">
-        <v>0</v>
-      </c>
-      <c r="D17" s="12">
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
         <v>322.55999999999995</v>
       </c>
     </row>
@@ -7492,7 +7495,7 @@
       <c r="D3" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="1">
         <v>29.5</v>
       </c>
       <c r="F3" t="s">
@@ -7504,28 +7507,28 @@
       <c r="H3" t="s">
         <v>93</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="1">
         <v>29.5</v>
       </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
         <v>-29.5</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="1">
         <v>29.5</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="1">
         <v>29.5</v>
       </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="O3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
         <v>29.5</v>
       </c>
     </row>
@@ -7542,7 +7545,7 @@
       <c r="D4" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="1">
         <v>2.75</v>
       </c>
       <c r="F4" t="s">
@@ -7554,28 +7557,28 @@
       <c r="H4" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="1">
         <v>2.75</v>
       </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
         <v>-32.25</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="1">
         <v>32.25</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="1">
         <v>32.25</v>
       </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
         <v>32.25</v>
       </c>
     </row>
@@ -7592,7 +7595,7 @@
       <c r="D5" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="1">
         <v>2.75</v>
       </c>
       <c r="F5" t="s">
@@ -7604,28 +7607,28 @@
       <c r="H5" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="1">
         <v>2.75</v>
       </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
         <v>-35</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="1">
         <v>35</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="1">
         <v>35</v>
       </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
         <v>35</v>
       </c>
     </row>
@@ -7642,7 +7645,7 @@
       <c r="D6" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="1">
         <v>29.95</v>
       </c>
       <c r="F6" t="s">
@@ -7654,28 +7657,28 @@
       <c r="H6" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="1">
         <v>29.95</v>
       </c>
-      <c r="J6" s="7">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
         <v>-64.95</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="1">
         <v>64.95</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="1">
         <v>64.95</v>
       </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
         <v>64.95</v>
       </c>
     </row>
@@ -7692,7 +7695,7 @@
       <c r="D7" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="1">
         <v>15.93</v>
       </c>
       <c r="F7" t="s">
@@ -7704,28 +7707,28 @@
       <c r="H7" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="1">
         <v>15.93</v>
       </c>
-      <c r="J7" s="7">
-        <v>0</v>
-      </c>
-      <c r="K7" s="7">
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
         <v>-80.88</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="1">
         <v>80.88</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="1">
         <v>80.88</v>
       </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7">
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="1">
         <v>80.88</v>
       </c>
     </row>
@@ -7742,7 +7745,7 @@
       <c r="D8" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="1">
         <v>2.75</v>
       </c>
       <c r="F8" t="s">
@@ -7754,28 +7757,28 @@
       <c r="H8" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="1">
         <v>2.75</v>
       </c>
-      <c r="J8" s="7">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
         <v>-83.63</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="1">
         <v>83.63</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="1">
         <v>83.63</v>
       </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1">
         <v>83.63</v>
       </c>
     </row>
@@ -7792,7 +7795,7 @@
       <c r="D9" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="1">
         <v>11.9</v>
       </c>
       <c r="F9" t="s">
@@ -7804,28 +7807,28 @@
       <c r="H9" t="s">
         <v>0</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="1">
         <v>11.9</v>
       </c>
-      <c r="J9" s="7">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
         <v>-95.53</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="1">
         <v>95.53</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="1">
         <v>95.53</v>
       </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7">
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1">
         <v>95.53</v>
       </c>
     </row>
@@ -7842,7 +7845,7 @@
       <c r="D10" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="1">
         <v>2.75</v>
       </c>
       <c r="F10" t="s">
@@ -7854,28 +7857,28 @@
       <c r="H10" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="1">
         <v>2.75</v>
       </c>
-      <c r="J10" s="7">
-        <v>0</v>
-      </c>
-      <c r="K10" s="7">
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
         <v>-98.28</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="1">
         <v>98.28</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="1">
         <v>98.28</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7">
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="P10" s="1">
         <v>98.28</v>
       </c>
     </row>
@@ -7892,7 +7895,7 @@
       <c r="D11" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="1">
         <v>2.75</v>
       </c>
       <c r="F11" t="s">
@@ -7904,28 +7907,28 @@
       <c r="H11" t="s">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="1">
         <v>2.75</v>
       </c>
-      <c r="J11" s="7">
-        <v>0</v>
-      </c>
-      <c r="K11" s="7">
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
         <v>-101.03</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="1">
         <v>101.03</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="1">
         <v>101.03</v>
       </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7">
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+      <c r="P11" s="1">
         <v>101.03</v>
       </c>
     </row>
@@ -7942,7 +7945,7 @@
       <c r="D12" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="1">
         <v>11.9</v>
       </c>
       <c r="F12" t="s">
@@ -7954,28 +7957,28 @@
       <c r="H12" t="s">
         <v>0</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="1">
         <v>11.9</v>
       </c>
-      <c r="J12" s="7">
-        <v>0</v>
-      </c>
-      <c r="K12" s="7">
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
         <v>-112.93</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="1">
         <v>112.93</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="1">
         <v>112.93</v>
       </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7">
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
         <v>112.93</v>
       </c>
     </row>
@@ -7992,7 +7995,7 @@
       <c r="D13" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="1">
         <v>2.75</v>
       </c>
       <c r="F13" t="s">
@@ -8004,28 +8007,28 @@
       <c r="H13" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="1">
         <v>2.75</v>
       </c>
-      <c r="J13" s="7">
-        <v>0</v>
-      </c>
-      <c r="K13" s="7">
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
         <v>-115.68</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="1">
         <v>115.68</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="1">
         <v>115.68</v>
       </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7">
-        <v>0</v>
-      </c>
-      <c r="P13" s="7">
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
         <v>115.68</v>
       </c>
     </row>
@@ -8042,7 +8045,7 @@
       <c r="D14" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="1">
         <v>2.75</v>
       </c>
       <c r="F14" t="s">
@@ -8054,28 +8057,28 @@
       <c r="H14" t="s">
         <v>0</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="1">
         <v>2.75</v>
       </c>
-      <c r="J14" s="7">
-        <v>0</v>
-      </c>
-      <c r="K14" s="7">
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
         <v>-118.43</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="1">
         <v>118.43</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="1">
         <v>118.43</v>
       </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7">
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>118.43</v>
       </c>
     </row>
@@ -8092,7 +8095,7 @@
       <c r="D15" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="1">
         <v>9.25</v>
       </c>
       <c r="F15" t="s">
@@ -8104,28 +8107,28 @@
       <c r="H15" t="s">
         <v>0</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="1">
         <v>9.25</v>
       </c>
-      <c r="J15" s="7">
-        <v>0</v>
-      </c>
-      <c r="K15" s="7">
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
         <v>-127.68</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="1">
         <v>127.68</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="1">
         <v>127.68</v>
       </c>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
-      <c r="O15" s="7">
-        <v>0</v>
-      </c>
-      <c r="P15" s="7">
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
         <v>127.68</v>
       </c>
     </row>
@@ -8142,7 +8145,7 @@
       <c r="D16" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="1">
         <v>7</v>
       </c>
       <c r="F16" t="s">
@@ -8154,28 +8157,28 @@
       <c r="H16" t="s">
         <v>0</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="1">
         <v>7</v>
       </c>
-      <c r="J16" s="7">
-        <v>0</v>
-      </c>
-      <c r="K16" s="7">
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
         <v>-134.68</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="1">
         <v>134.68</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="1">
         <v>134.68</v>
       </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7">
-        <v>0</v>
-      </c>
-      <c r="P16" s="7">
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+      <c r="P16" s="1">
         <v>134.68</v>
       </c>
     </row>
@@ -8192,7 +8195,7 @@
       <c r="D17" t="s">
         <v>95</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="1">
         <v>2.75</v>
       </c>
       <c r="F17" t="s">
@@ -8204,28 +8207,28 @@
       <c r="H17" t="s">
         <v>0</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="1">
         <v>2.75</v>
       </c>
-      <c r="J17" s="7">
-        <v>0</v>
-      </c>
-      <c r="K17" s="7">
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
         <v>-137.43</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="1">
         <v>137.43</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="1">
         <v>137.43</v>
       </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7">
-        <v>0</v>
-      </c>
-      <c r="P17" s="7">
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
         <v>137.43</v>
       </c>
     </row>
@@ -8242,7 +8245,7 @@
       <c r="D18" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="1">
         <v>5.99</v>
       </c>
       <c r="F18" t="s">
@@ -8254,28 +8257,28 @@
       <c r="H18" t="s">
         <v>0</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="1">
         <v>5.99</v>
       </c>
-      <c r="J18" s="7">
-        <v>0</v>
-      </c>
-      <c r="K18" s="7">
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
         <v>-143.41999999999999</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="1">
         <v>143.41999999999999</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="1">
         <v>143.41999999999999</v>
       </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7">
-        <v>0</v>
-      </c>
-      <c r="P18" s="7">
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
         <v>143.41999999999999</v>
       </c>
     </row>
@@ -8292,7 +8295,7 @@
       <c r="D19" t="s">
         <v>105</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="1">
         <v>7</v>
       </c>
       <c r="F19" t="s">
@@ -8304,28 +8307,28 @@
       <c r="H19" t="s">
         <v>0</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="1">
         <v>7</v>
       </c>
-      <c r="J19" s="7">
-        <v>0</v>
-      </c>
-      <c r="K19" s="7">
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
         <v>-150.41999999999999</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="1">
         <v>150.41999999999999</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="1">
         <v>150.41999999999999</v>
       </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7">
-        <v>0</v>
-      </c>
-      <c r="P19" s="7">
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
         <v>150.41999999999999</v>
       </c>
     </row>
@@ -8342,7 +8345,7 @@
       <c r="D20" t="s">
         <v>95</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="1">
         <v>2.75</v>
       </c>
       <c r="F20" t="s">
@@ -8354,28 +8357,28 @@
       <c r="H20" t="s">
         <v>0</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="1">
         <v>2.75</v>
       </c>
-      <c r="J20" s="7">
-        <v>0</v>
-      </c>
-      <c r="K20" s="7">
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
         <v>-153.16999999999999</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="1">
         <v>153.16999999999999</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="1">
         <v>153.16999999999999</v>
       </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7">
-        <v>0</v>
-      </c>
-      <c r="P20" s="7">
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
         <v>153.16999999999999</v>
       </c>
     </row>
@@ -8392,7 +8395,7 @@
       <c r="D21" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="1">
         <v>2.75</v>
       </c>
       <c r="F21" t="s">
@@ -8404,28 +8407,28 @@
       <c r="H21" t="s">
         <v>0</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="1">
         <v>2.75</v>
       </c>
-      <c r="J21" s="7">
-        <v>0</v>
-      </c>
-      <c r="K21" s="7">
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
         <v>-155.91999999999999</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="1">
         <v>155.91999999999999</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="1">
         <v>155.91999999999999</v>
       </c>
-      <c r="N21" s="7">
-        <v>0</v>
-      </c>
-      <c r="O21" s="7">
-        <v>0</v>
-      </c>
-      <c r="P21" s="7">
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
         <v>155.91999999999999</v>
       </c>
     </row>
@@ -8442,7 +8445,7 @@
       <c r="D22" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="1">
         <v>10.5</v>
       </c>
       <c r="F22" t="s">
@@ -8454,28 +8457,28 @@
       <c r="H22" t="s">
         <v>0</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="1">
         <v>10.5</v>
       </c>
-      <c r="J22" s="7">
-        <v>0</v>
-      </c>
-      <c r="K22" s="7">
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
         <v>-166.42</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="1">
         <v>166.42</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="1">
         <v>166.42</v>
       </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7">
-        <v>0</v>
-      </c>
-      <c r="P22" s="7">
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
         <v>166.42</v>
       </c>
     </row>
@@ -8492,7 +8495,7 @@
       <c r="D23" t="s">
         <v>97</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="1">
         <v>16.75</v>
       </c>
       <c r="F23" t="s">
@@ -8504,28 +8507,28 @@
       <c r="H23" t="s">
         <v>0</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="1">
         <v>16.75</v>
       </c>
-      <c r="J23" s="7">
-        <v>0</v>
-      </c>
-      <c r="K23" s="7">
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
         <v>-183.17</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="1">
         <v>183.17</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="1">
         <v>183.17</v>
       </c>
-      <c r="N23" s="7">
-        <v>0</v>
-      </c>
-      <c r="O23" s="7">
-        <v>0</v>
-      </c>
-      <c r="P23" s="7">
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
         <v>183.17</v>
       </c>
     </row>
@@ -8542,7 +8545,7 @@
       <c r="D24" t="s">
         <v>106</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="1">
         <v>10</v>
       </c>
       <c r="F24" t="s">
@@ -8554,28 +8557,28 @@
       <c r="H24" t="s">
         <v>0</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="1">
         <v>10</v>
       </c>
-      <c r="J24" s="7">
-        <v>0</v>
-      </c>
-      <c r="K24" s="7">
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
         <v>-193.17</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="1">
         <v>193.17</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="1">
         <v>193.17</v>
       </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7">
-        <v>0</v>
-      </c>
-      <c r="P24" s="7">
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
         <v>193.17</v>
       </c>
     </row>
@@ -8592,7 +8595,7 @@
       <c r="D25" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="1">
         <v>2.75</v>
       </c>
       <c r="F25" t="s">
@@ -8604,28 +8607,28 @@
       <c r="H25" t="s">
         <v>0</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="1">
         <v>2.75</v>
       </c>
-      <c r="J25" s="7">
-        <v>0</v>
-      </c>
-      <c r="K25" s="7">
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
         <v>-195.92</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="1">
         <v>195.92</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="1">
         <v>195.92</v>
       </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7">
-        <v>0</v>
-      </c>
-      <c r="P25" s="7">
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
         <v>195.92</v>
       </c>
     </row>
@@ -8642,7 +8645,7 @@
       <c r="D26" t="s">
         <v>92</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="1">
         <v>7</v>
       </c>
       <c r="F26" t="s">
@@ -8654,28 +8657,28 @@
       <c r="H26" t="s">
         <v>0</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="1">
         <v>7</v>
       </c>
-      <c r="J26" s="7">
-        <v>0</v>
-      </c>
-      <c r="K26" s="7">
+      <c r="J26" s="1">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
         <v>-202.92</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="1">
         <v>202.92</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="1">
         <v>202.92</v>
       </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7">
-        <v>0</v>
-      </c>
-      <c r="P26" s="7">
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
         <v>202.92</v>
       </c>
     </row>
@@ -8692,7 +8695,7 @@
       <c r="D27" t="s">
         <v>95</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="1">
         <v>2.75</v>
       </c>
       <c r="F27" t="s">
@@ -8704,28 +8707,28 @@
       <c r="H27" t="s">
         <v>0</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="1">
         <v>2.75</v>
       </c>
-      <c r="J27" s="7">
-        <v>0</v>
-      </c>
-      <c r="K27" s="7">
+      <c r="J27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
         <v>-205.67</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="1">
         <v>205.67</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="1">
         <v>205.67</v>
       </c>
-      <c r="N27" s="7">
-        <v>0</v>
-      </c>
-      <c r="O27" s="7">
-        <v>0</v>
-      </c>
-      <c r="P27" s="7">
+      <c r="N27" s="1">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1">
         <v>205.67</v>
       </c>
     </row>
@@ -8742,7 +8745,7 @@
       <c r="D28" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="1">
         <v>2.75</v>
       </c>
       <c r="F28" t="s">
@@ -8754,38 +8757,38 @@
       <c r="H28" t="s">
         <v>0</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="1">
         <v>2.75</v>
       </c>
-      <c r="J28" s="7">
-        <v>0</v>
-      </c>
-      <c r="K28" s="7">
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
         <v>-208.42</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="1">
         <v>208.42</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="1">
         <v>208.42</v>
       </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7">
-        <v>0</v>
-      </c>
-      <c r="P28" s="7">
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1">
         <v>208.42</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C31" t="s">
@@ -8796,57 +8799,57 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="1">
         <v>106.75</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="1">
         <v>86.429999999999993</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="1">
         <v>9.25</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="1">
         <v>5.99</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="1">
         <v>208.42000000000002</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="1">
         <v>0</v>
       </c>
     </row>
@@ -8978,7 +8981,7 @@
       <c r="D3" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="1">
         <v>83.95</v>
       </c>
       <c r="F3" t="s">
@@ -8990,38 +8993,38 @@
       <c r="H3" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="1">
         <v>83.95</v>
       </c>
-      <c r="J3" s="8">
-        <v>0</v>
-      </c>
-      <c r="K3" s="8">
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
         <v>-83.95</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="1">
         <v>83.95</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="1">
         <v>83.95</v>
       </c>
-      <c r="N3" s="8">
-        <v>0</v>
-      </c>
-      <c r="O3" s="8">
-        <v>0</v>
-      </c>
-      <c r="P3" s="8">
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
         <v>83.95</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C6" t="s">
@@ -9032,24 +9035,24 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="1">
         <v>83.95</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="1">
         <v>83.95</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="1">
         <v>0</v>
       </c>
     </row>
@@ -9202,7 +9205,7 @@
       <c r="D3" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="2">
         <v>1.8228644000000001</v>
       </c>
       <c r="F3" t="s">
@@ -9214,40 +9217,40 @@
       <c r="H3" t="s">
         <v>114</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="2">
         <v>0.61</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="2">
         <v>0.61</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="2">
         <v>0.61</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="2">
         <v>-0.61</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="2">
         <v>1.22</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="2">
         <v>-0.61</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="2">
         <v>0.61</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="2">
         <v>0.61</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="2">
         <v>0.61</v>
       </c>
-      <c r="R3" s="9">
-        <v>0</v>
-      </c>
-      <c r="S3" s="9">
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
         <v>1.82</v>
       </c>
-      <c r="T3" s="9">
+      <c r="T3" s="2">
         <v>0</v>
       </c>
     </row>
@@ -9264,7 +9267,7 @@
       <c r="D4" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="2">
         <v>607.62145999999996</v>
       </c>
       <c r="F4" t="s">
@@ -9276,50 +9279,50 @@
       <c r="H4" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="2">
         <v>202.54</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="2">
         <v>202.54</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="2">
         <v>202.54</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="2">
         <v>-203.15</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="2">
         <v>-201.33</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="2">
         <v>404.47</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="2">
         <v>203.15</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="2">
         <v>203.15</v>
       </c>
-      <c r="Q4" s="9">
+      <c r="Q4" s="2">
         <v>203.15</v>
       </c>
-      <c r="R4" s="9">
-        <v>0</v>
-      </c>
-      <c r="S4" s="9">
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
         <v>1.82</v>
       </c>
-      <c r="T4" s="9">
+      <c r="T4" s="2">
         <v>607.62</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C7" t="s">
@@ -9333,44 +9336,44 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="2">
         <v>0.61</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="2">
         <v>0.61</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="2">
         <v>0.61</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="2">
         <v>202.54</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="2">
         <v>202.54</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="2">
         <v>202.54</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="2">
         <v>203.15</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="2">
         <v>203.15</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="2">
         <v>203.15</v>
       </c>
     </row>
